--- a/biology/Zoologie/Cyclocardia/Cyclocardia.xlsx
+++ b/biology/Zoologie/Cyclocardia/Cyclocardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclocardia est un genre de mollusques bivalves de la famille des Carditidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (24 octobre 2019)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (24 octobre 2019):
 Cyclocardia astartoides (Martens, 1878)
 Cyclocardia awamoensis (G. F. Harris, 1897) †
 Cyclocardia bailyi (J. Q. Burch, 1944)
@@ -544,7 +558,7 @@
 Cyclocardia umnaka (Willett, 1932)
 Cyclocardia velutina (E. A. Smith, 1881)
 Cyclocardia ventricosa (Gould, 1850)
-Selon Paleobiology Database                   (24 octobre 2019)[2], il y a trois sous-genres, et 27 espèces non classées:
+Selon Paleobiology Database                   (24 octobre 2019), il y a trois sous-genres, et 27 espèces non classées:
 Cyclocardia (Arcturellina) Chavan, 1951
 Cyclocardia (Arcturellina) davidsoni
 Cyclocardia (Arcturellina) elegans
